--- a/Leetcode all sheet/Coding Decoded Dynamic Programming SDE sheet.xlsx
+++ b/Leetcode all sheet/Coding Decoded Dynamic Programming SDE sheet.xlsx
@@ -1069,8 +1069,8 @@
   </sheetPr>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1786,7 +1786,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" ht="13">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="31" t="s">
         <v>117</v>
       </c>
       <c r="B45" s="19" t="s">
@@ -1888,7 +1888,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" ht="13">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="31" t="s">
         <v>135</v>
       </c>
       <c r="B51" s="19" t="s">
